--- a/Modelo Conversión de Tasas (Juan David Rincón).xlsx
+++ b/Modelo Conversión de Tasas (Juan David Rincón).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Universidad\Clases\(3) Tercer Semestre\Finanzas Internacionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289B6D60-A3D4-4D82-B4CA-F409FA09B984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CAD767-96DB-4037-BAE9-B881F1C7A2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{13D2B4EB-6CEF-4E0B-91A5-25AD84B0275D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Tipo de Tasa</t>
   </si>
@@ -159,20 +159,16 @@
     <t>CONT-X</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Elaborado por: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Juan David Rincón Mora</t>
-    </r>
+    <t>Fecha de Creación:</t>
+  </si>
+  <si>
+    <t>Elaborado por:</t>
+  </si>
+  <si>
+    <t>Juan David Rincón Mora</t>
+  </si>
+  <si>
+    <t>Ultima Modificación:</t>
   </si>
 </sst>
 </file>
@@ -183,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +230,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -390,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +457,7 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,6 +495,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="by-nc">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376EE186-BC20-4505-882C-5B3157C27ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
+          <a:ext cx="1152525" cy="403241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF99FA30-A798-490E-8042-4B6BAD3CCBB0}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,19 +994,37 @@
     <col min="1" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="C2" s="30">
         <v>44478</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="30">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RLFjNJZG4bSlkkz9yrB5ltogb4TrQJacu26NWDGb0uXOHPt2AG8aPGjSymWQriP/AxX19C5wo1ZEifOr+m9ZNQ==" saltValue="t4z7KRBZM81jy+WGtENb8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ouT8Mk6NoJmRHLsJMNV2iF+mamVCKed1wyT3AXGu7DXsDDwmAR9kTMgAVwuVxXOo96XYvxTVMqVr8YwMznyhgA==" saltValue="6c+4/jZ/PGdx0d4SfvqmNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Modelo Conversión de Tasas (Juan David Rincón).xlsx
+++ b/Modelo Conversión de Tasas (Juan David Rincón).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Universidad\Clases\(3) Tercer Semestre\Finanzas Internacionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CAD767-96DB-4037-BAE9-B881F1C7A2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA3278-DBC9-42A1-B6DC-508837EF0373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{13D2B4EB-6CEF-4E0B-91A5-25AD84B0275D}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,17 +223,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,14 +457,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +515,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22241</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -540,8 +548,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="762000"/>
-          <a:ext cx="1152525" cy="403241"/>
+          <a:off x="0" y="990600"/>
+          <a:ext cx="1657350" cy="579867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -986,43 +994,49 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="27.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="30">
+      <c r="B2" s="30"/>
+      <c r="C2" s="32">
         <v>44478</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="30">
-        <v>44977</v>
+      <c r="B3" s="30"/>
+      <c r="C3" s="32">
+        <v>44978</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ouT8Mk6NoJmRHLsJMNV2iF+mamVCKed1wyT3AXGu7DXsDDwmAR9kTMgAVwuVxXOo96XYvxTVMqVr8YwMznyhgA==" saltValue="6c+4/jZ/PGdx0d4SfvqmNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yjkiw7I3IVpnWFRJK/YpSwoOed7cgv+UFNnUDUrAZP0yZEYJGCji2KYkQ53q7W7YtlUn/F5M7M8yrvvDuRonQQ==" saltValue="I5SwRYi3TfTnpPZTOIk5Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Modelo Conversión de Tasas (Juan David Rincón).xlsx
+++ b/Modelo Conversión de Tasas (Juan David Rincón).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Universidad\Clases\(3) Tercer Semestre\Finanzas Internacionales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Universidad\Market Value\Portfolio Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA3278-DBC9-42A1-B6DC-508837EF0373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FE133A-42AA-4765-82D9-DBBAF5AADBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{13D2B4EB-6CEF-4E0B-91A5-25AD84B0275D}"/>
   </bookViews>
@@ -168,7 +168,7 @@
     <t>Juan David Rincón Mora</t>
   </si>
   <si>
-    <t>Ultima Modificación:</t>
+    <t>Última Modificación:</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -888,14 +888,14 @@
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24">
-        <v>6.4500000000000002E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="19">
         <f>IF(AND($B$5="Nominal",$B$11="Vencida"),'H3'!$C$13,IF(AND($B$5="Nominal",$B$11="Anticipada"),'H3'!$C$24, IF(AND($B$5="Efectiva",$B$11="Vencida"),'H3'!$I$13, IF(AND($B$5="Efectiva",$B$11="Anticipada"),'H3'!$I$24, IF($B$5="Continua",'H3'!$C$35,"ERROR")))))</f>
-        <v>6.6625578244648986E-2</v>
+        <v>3.3157933999379052E-2</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,10 +909,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -925,10 +925,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -942,10 +942,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>12</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -994,7 +994,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
       <c r="A5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yjkiw7I3IVpnWFRJK/YpSwoOed7cgv+UFNnUDUrAZP0yZEYJGCji2KYkQ53q7W7YtlUn/F5M7M8yrvvDuRonQQ==" saltValue="I5SwRYi3TfTnpPZTOIk5Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rF/nPwSnCQw9nYsV0ktZsYnqcCDGTLYP16MbR+iVwqjV3BpLY7C52UkqPg+H+ybA8tVJgHMwmQXilNwVGKOV1g==" saltValue="WWrSMhgUh3AnydmX0lCPRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1169,7 +1169,7 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="18">
         <f>IF('Conversor de Tasas'!B8="Anual", 1, IF('Conversor de Tasas'!B8="9 Meses", 12/9, IF('Conversor de Tasas'!B8="Semestral", 2, IF('Conversor de Tasas'!B8="Cuatrimestral", 3, IF('Conversor de Tasas'!B8="Trimestral", 4, IF('Conversor de Tasas'!B8="Bimestral", 6, IF('Conversor de Tasas'!B8="Mensual", 12, IF('Conversor de Tasas'!B8="Quincenal", 24, IF('Conversor de Tasas'!B8="Semanal", 52, IF('Conversor de Tasas'!B8="Diaria", 365, "ERROR"))))))))))</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>16</v>
@@ -1179,20 +1179,20 @@
       </c>
       <c r="F2" s="18" t="str">
         <f>'Conversor de Tasas'!$D$5</f>
-        <v>Nominal</v>
+        <v>Efectiva</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="26">
         <f>'Conversor de Tasas'!$B$2</f>
-        <v>6.4500000000000002E-2</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="18">
         <f>IF('Conversor de Tasas'!D8="Anual", 1, IF('Conversor de Tasas'!D8="9 Meses", 12/9, IF('Conversor de Tasas'!D8="Semestral", 2, IF('Conversor de Tasas'!D8="Cuatrimestral", 3, IF('Conversor de Tasas'!D8="Trimestral", 4, IF('Conversor de Tasas'!D8="Bimestral", 6, IF('Conversor de Tasas'!D8="Mensual", 12, IF('Conversor de Tasas'!D8="Quincenal", 24, IF('Conversor de Tasas'!D8="Semanal", 52, IF('Conversor de Tasas'!D8="Diaria", 365, "ERROR"))))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>15</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F3" s="18" t="str">
         <f>'Conversor de Tasas'!$D$11</f>
-        <v>Vencida</v>
+        <v>Anticipada</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1244,26 +1244,26 @@
       <c r="B7" s="17"/>
       <c r="C7" s="10">
         <f>$I$2</f>
-        <v>6.4500000000000002E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="D7" s="10">
         <f>C7/$B$2</f>
-        <v>4.8375000000000001E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="E7" s="10">
         <f>(1+D7)^($B$2)-1</f>
-        <v>6.5014550770384538E-2</v>
+        <v>0.14440000000000008</v>
       </c>
       <c r="F7" s="11"/>
       <c r="H7" s="17"/>
       <c r="I7" s="10">
         <f>$I$2</f>
-        <v>6.4500000000000002E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10">
         <f>(1+I7)^($B$2)-1</f>
-        <v>8.6911593170757362E-2</v>
+        <v>0.14440000000000008</v>
       </c>
       <c r="L7" s="11"/>
     </row>
@@ -1309,37 +1309,37 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <f>(1+E7)^(1/$B$3)-1</f>
-        <v>6.5014550770384538E-2</v>
+        <v>3.4295088272832563E-2</v>
       </c>
       <c r="C10" s="10">
         <f>B10*$B$3</f>
-        <v>6.5014550770384538E-2</v>
+        <v>0.13718035309133025</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="10">
         <f>(1-((1+E7)^(-1/$B$3)))</f>
-        <v>6.1045692496272341E-2</v>
+        <v>3.3157933999379052E-2</v>
       </c>
       <c r="F10" s="11">
         <f>E10*$B$3</f>
-        <v>6.1045692496272341E-2</v>
+        <v>0.13263173599751621</v>
       </c>
       <c r="H10" s="17">
         <f>(1+K7)^(1/$B$3)-1</f>
-        <v>8.6911593170757362E-2</v>
+        <v>3.4295088272832563E-2</v>
       </c>
       <c r="I10" s="10">
         <f>H10*$B$3</f>
-        <v>8.6911593170757362E-2</v>
+        <v>0.13718035309133025</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="10">
         <f>(1-((1+K7)^(-1/$B$3)))</f>
-        <v>7.9961970887822975E-2</v>
+        <v>3.3157933999379052E-2</v>
       </c>
       <c r="L10" s="11">
         <f>K10*$B$3</f>
-        <v>7.9961970887822975E-2</v>
+        <v>0.13263173599751621</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1378,23 +1378,23 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16">
         <f>IF(AND($F$2="Nominal",$F$3="Vencida"),C10,IF(AND($F$2="Nominal",$F$3="Anticipada"),F10,IF(AND($F$2="Efectiva",$F$3="Vencida"),B10,IF(AND($F$2="Efectiva",$F$3="Anticipada"),E10,IF($F$2="Continua",E13,"ERROR")))))</f>
-        <v>6.5014550770384538E-2</v>
+        <v>3.3157933999379052E-2</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="10">
         <f>LN(1+E7)</f>
-        <v>6.2988461763251416E-2</v>
+        <v>0.13488048219381821</v>
       </c>
       <c r="F13" s="9"/>
       <c r="H13" s="15"/>
       <c r="I13" s="16">
         <f>IF(AND($F$2="Nominal",$F$3="Vencida"),I10,IF(AND($F$2="Nominal",$F$3="Anticipada"),L10,IF(AND($F$2="Efectiva",$F$3="Vencida"),H10,IF(AND($F$2="Efectiva",$F$3="Anticipada"),K10,IF($F$2="Continua",K13,"ERROR")))))</f>
-        <v>8.6911593170757362E-2</v>
+        <v>3.3157933999379052E-2</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="10">
         <f>LN(1+K7)</f>
-        <v>8.3340273801862819E-2</v>
+        <v>0.13488048219381821</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -1449,26 +1449,26 @@
       <c r="B18" s="7"/>
       <c r="C18" s="10">
         <f>$I$2</f>
-        <v>6.4500000000000002E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="D18" s="10">
         <f>C18/$B$2</f>
-        <v>4.8375000000000001E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="E18" s="10">
         <f>(1-D18)^(-$B$2)-1</f>
-        <v>6.8346691967057893E-2</v>
+        <v>0.16877045348293596</v>
       </c>
       <c r="F18" s="9"/>
       <c r="H18" s="17"/>
       <c r="I18" s="10">
         <f>$I$2</f>
-        <v>6.4500000000000002E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10">
         <f>(1-I18)^(-$B$2)-1</f>
-        <v>9.2970090642308101E-2</v>
+        <v>0.16877045348293596</v>
       </c>
       <c r="L18" s="11"/>
     </row>
@@ -1515,37 +1515,37 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <f>(1+E18)^(1/$B$3)-1</f>
-        <v>6.8346691967057893E-2</v>
+        <v>3.975808492217392E-2</v>
       </c>
       <c r="C21" s="10">
         <f>B21*$B$3</f>
-        <v>6.8346691967057893E-2</v>
+        <v>0.15903233968869568</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10">
         <f>1-(1+E18)^(-1/$B$3)</f>
-        <v>6.3974262737891641E-2</v>
+        <v>3.8237822334557636E-2</v>
       </c>
       <c r="F21" s="11">
         <f>E21*$B$3</f>
-        <v>6.3974262737891641E-2</v>
+        <v>0.15295128933823054</v>
       </c>
       <c r="H21" s="17">
         <f>(1+K18)^(1/$B$3)-1</f>
-        <v>9.2970090642308101E-2</v>
+        <v>3.975808492217392E-2</v>
       </c>
       <c r="I21" s="10">
         <f>H21*$B$3</f>
-        <v>9.2970090642308101E-2</v>
+        <v>0.15903233968869568</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="10">
         <f>(1-((1+K18)^(-1/$B$3)))</f>
-        <v>8.506187995288339E-2</v>
+        <v>3.8237822334557636E-2</v>
       </c>
       <c r="L21" s="11">
         <f>K21*$B$3</f>
-        <v>8.506187995288339E-2</v>
+        <v>0.15295128933823054</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1584,23 +1584,23 @@
       <c r="B24" s="7"/>
       <c r="C24" s="16">
         <f>IF(AND($F$2="Nominal",$F$3="Vencida"),C21,IF(AND($F$2="Nominal",$F$3="Anticipada"),F21,IF(AND($F$2="Efectiva",$F$3="Vencida"),B21,IF(AND($F$2="Efectiva",$F$3="Anticipada"),E21,IF($F$2="Continua",E24,"ERROR")))))</f>
-        <v>6.8346691967057893E-2</v>
+        <v>3.8237822334557636E-2</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="10">
         <f>LN(1+E18)</f>
-        <v>6.6112305807680488E-2</v>
+        <v>0.1559523017738865</v>
       </c>
       <c r="F24" s="9"/>
       <c r="H24" s="15"/>
       <c r="I24" s="16">
         <f>IF(AND($F$2="Nominal",$F$3="Vencida"),I21,IF(AND($F$2="Nominal",$F$3="Anticipada"),L21,IF(AND($F$2="Efectiva",$F$3="Vencida"),H21,IF(AND($F$2="Efectiva",$F$3="Anticipada"),K21,IF($F$2="Continua",K24,"ERROR")))))</f>
-        <v>9.2970090642308101E-2</v>
+        <v>3.8237822334557636E-2</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="10">
         <f>LN(1+K18)</f>
-        <v>8.8898844357323634E-2</v>
+        <v>0.1559523017738865</v>
       </c>
       <c r="L24" s="9"/>
     </row>
@@ -1645,12 +1645,12 @@
       <c r="B29" s="7"/>
       <c r="C29" s="27">
         <f>$I$2</f>
-        <v>6.4500000000000002E-2</v>
+        <v>0.1444</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="27">
         <f>EXP(C29)-1</f>
-        <v>6.6625578244648986E-2</v>
+        <v>0.15534615457137235</v>
       </c>
       <c r="F29" s="9"/>
     </row>
@@ -1679,20 +1679,20 @@
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="17">
         <f>(1+E29)^(1/$B$3)-1</f>
-        <v>6.6625578244648986E-2</v>
+        <v>3.6759517259024932E-2</v>
       </c>
       <c r="C32" s="10">
         <f>B32*$B$3</f>
-        <v>6.6625578244648986E-2</v>
+        <v>0.14703806903609973</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="10">
         <f>(1-((1+E29)^(-1/$B$3)))</f>
-        <v>6.2463885737950364E-2</v>
+        <v>3.5456165723184663E-2</v>
       </c>
       <c r="F32" s="11">
         <f>E32*$B$3</f>
-        <v>6.2463885737950364E-2</v>
+        <v>0.14182466289273865</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1717,12 +1717,12 @@
       <c r="B35" s="7"/>
       <c r="C35" s="16">
         <f>IF(AND($F$2="Nominal",$F$3="Vencida"),C32,IF(AND($F$2="Nominal",$F$3="Anticipada"),F32,IF(AND($F$2="Efectiva",$F$3="Vencida"),B32,IF(AND($F$2="Efectiva",$F$3="Anticipada"),E32,IF($F$2="Continua",E35,"ERROR")))))</f>
-        <v>6.6625578244648986E-2</v>
+        <v>3.5456165723184663E-2</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="10">
         <f>LN(1+E29)</f>
-        <v>6.4500000000000099E-2</v>
+        <v>0.14440000000000006</v>
       </c>
       <c r="F35" s="9"/>
     </row>
